--- a/ilin_R1_by_R2 (3 by 1)1000.xlsx
+++ b/ilin_R1_by_R2 (3 by 1)1000.xlsx
@@ -9,6 +9,7 @@
     <sheet name="ilin" r:id="rId3" sheetId="1"/>
     <sheet name="ilin_pert" r:id="rId4" sheetId="2"/>
     <sheet name="ilin_pert_2" r:id="rId5" sheetId="3"/>
+    <sheet name="lin" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -385,6 +386,167 @@
         <v>-0.13148348233354287</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5042864346949067</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6348590074604978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7992401373984435</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0061837190967622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.266710252904478</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.5946937267616639</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0076004566490027</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.527419231605004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.1818322969248274</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.005689534666069</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.0428643469490675</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.348590074604978</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.9924013739844355</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.061837190967623</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.667102529044781</v>
+      </c>
+      <c r="P3" t="n">
+        <v>15.946937267616638</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>20.076004566490028</v>
+      </c>
+      <c r="R3" t="n">
+        <v>25.27419231605004</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.81832296924827</v>
+      </c>
+      <c r="T3" t="n">
+        <v>40.05689534666069</v>
+      </c>
+      <c r="U3" t="n">
+        <v>50.42864346949067</v>
+      </c>
+      <c r="V3" t="n">
+        <v>63.485900746049786</v>
+      </c>
+      <c r="W3" t="n">
+        <v>79.92401373984436</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100.61837190967623</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>126.67102529044782</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>159.4693726761664</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>200.76004566490028</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>252.7419231605004</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>318.1832296924827</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>400.5689534666069</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>504.2864346949067</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>634.8590074604979</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>799.2401373984435</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1006.1837190967623</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1266.710252904478</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1594.6937267616638</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2007.6004566490028</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2527.419231605004</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3181.8322969248275</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4005.689534666069</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5042.864346949067</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6348.590074604978</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>7992.401373984435</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>10061.837190967623</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>12667.102529044781</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>15946.937267616639</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>20076.004566490028</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>25274.19231605004</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>31818.322969248275</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>40056.89534666069</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>50428.64346949067</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>63485.90074604978</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>79924.01373984435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -718,6 +880,167 @@
       </c>
       <c r="BA2" t="n">
         <v>-0.13146665963119225</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5042864346949067</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6348590074604978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7992401373984435</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0061837190967622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.266710252904478</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.5946937267616639</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0076004566490027</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.527419231605004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.1818322969248274</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.005689534666069</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.0428643469490675</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.348590074604978</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.9924013739844355</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.061837190967623</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.667102529044781</v>
+      </c>
+      <c r="P3" t="n">
+        <v>15.946937267616638</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>20.076004566490028</v>
+      </c>
+      <c r="R3" t="n">
+        <v>25.27419231605004</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.81832296924827</v>
+      </c>
+      <c r="T3" t="n">
+        <v>40.05689534666069</v>
+      </c>
+      <c r="U3" t="n">
+        <v>50.42864346949067</v>
+      </c>
+      <c r="V3" t="n">
+        <v>63.485900746049786</v>
+      </c>
+      <c r="W3" t="n">
+        <v>79.92401373984436</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100.61837190967623</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>126.67102529044782</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>159.4693726761664</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>200.76004566490028</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>252.7419231605004</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>318.1832296924827</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>400.5689534666069</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>504.2864346949067</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>634.8590074604979</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>799.2401373984435</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1006.1837190967623</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1266.710252904478</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1594.6937267616638</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2007.6004566490028</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2527.419231605004</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3181.8322969248275</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4005.689534666069</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5042.864346949067</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6348.590074604978</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>7992.401373984435</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>10061.837190967623</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>12667.102529044781</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>15946.937267616639</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>20076.004566490028</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>25274.19231605004</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>31818.322969248275</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>40056.89534666069</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>50428.64346949067</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>63485.90074604978</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>79924.01373984435</v>
       </c>
     </row>
   </sheetData>
@@ -1055,6 +1378,341 @@
         <v>-0.13148352158574186</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5042864346949067</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6348590074604978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7992401373984435</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0061837190967622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.266710252904478</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.5946937267616639</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0076004566490027</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.527419231605004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.1818322969248274</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.005689534666069</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.0428643469490675</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.348590074604978</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.9924013739844355</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.061837190967623</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.667102529044781</v>
+      </c>
+      <c r="P3" t="n">
+        <v>15.946937267616638</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>20.076004566490028</v>
+      </c>
+      <c r="R3" t="n">
+        <v>25.27419231605004</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.81832296924827</v>
+      </c>
+      <c r="T3" t="n">
+        <v>40.05689534666069</v>
+      </c>
+      <c r="U3" t="n">
+        <v>50.42864346949067</v>
+      </c>
+      <c r="V3" t="n">
+        <v>63.485900746049786</v>
+      </c>
+      <c r="W3" t="n">
+        <v>79.92401373984436</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100.61837190967623</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>126.67102529044782</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>159.4693726761664</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>200.76004566490028</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>252.7419231605004</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>318.1832296924827</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>400.5689534666069</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>504.2864346949067</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>634.8590074604979</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>799.2401373984435</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1006.1837190967623</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1266.710252904478</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1594.6937267616638</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2007.6004566490028</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2527.419231605004</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3181.8322969248275</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4005.689534666069</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5042.864346949067</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6348.590074604978</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>7992.401373984435</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>10061.837190967623</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>12667.102529044781</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>15946.937267616639</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>20076.004566490028</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>25274.19231605004</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>31818.322969248275</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>40056.89534666069</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>50428.64346949067</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>63485.90074604978</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>79924.01373984435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5042864346949067</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6348590074604978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7992401373984435</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0061837190967622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.266710252904478</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.5946937267616639</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0076004566490027</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.527419231605004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.1818322969248274</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.005689534666069</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.0428643469490675</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.348590074604978</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.9924013739844355</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.061837190967623</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.667102529044781</v>
+      </c>
+      <c r="P3" t="n">
+        <v>15.946937267616638</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>20.076004566490028</v>
+      </c>
+      <c r="R3" t="n">
+        <v>25.27419231605004</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.81832296924827</v>
+      </c>
+      <c r="T3" t="n">
+        <v>40.05689534666069</v>
+      </c>
+      <c r="U3" t="n">
+        <v>50.42864346949067</v>
+      </c>
+      <c r="V3" t="n">
+        <v>63.485900746049786</v>
+      </c>
+      <c r="W3" t="n">
+        <v>79.92401373984436</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100.61837190967623</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>126.67102529044782</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>159.4693726761664</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>200.76004566490028</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>252.7419231605004</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>318.1832296924827</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>400.5689534666069</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>504.2864346949067</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>634.8590074604979</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>799.2401373984435</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1006.1837190967623</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1266.710252904478</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1594.6937267616638</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2007.6004566490028</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2527.419231605004</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3181.8322969248275</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4005.689534666069</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5042.864346949067</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6348.590074604978</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>7992.401373984435</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>10061.837190967623</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>12667.102529044781</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>15946.937267616639</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>20076.004566490028</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>25274.19231605004</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>31818.322969248275</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>40056.89534666069</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>50428.64346949067</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>63485.90074604978</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>79924.01373984435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
